--- a/Database.xlsx
+++ b/Database.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lesyt\OneDrive - Thanglele\DATA-LEARNING\C#\SchoolEdu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3F6730F-802B-4DB6-A93B-57AB0D82B5C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20B2B3A-99BB-4FA6-ABBF-BC54C9F42192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7155" yWindow="4065" windowWidth="21600" windowHeight="11385" activeTab="6" xr2:uid="{FB706267-7A05-4D03-A38D-A1D6E09A9BBD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{FB706267-7A05-4D03-A38D-A1D6E09A9BBD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Thongtinsinhvien" sheetId="1" r:id="rId1"/>
-    <sheet name="Login_infomation" sheetId="3" r:id="rId2"/>
-    <sheet name="Lichthi" sheetId="2" r:id="rId3"/>
-    <sheet name="Tinchi" sheetId="4" r:id="rId4"/>
-    <sheet name="GPA" sheetId="5" r:id="rId5"/>
-    <sheet name="Trang_tính6" sheetId="6" r:id="rId6"/>
-    <sheet name="Monhoc" sheetId="7" r:id="rId7"/>
+    <sheet name="Tinchi" sheetId="4" r:id="rId1"/>
+    <sheet name="Trang_tính6" sheetId="6" r:id="rId2"/>
+    <sheet name="GIAOVIEN" sheetId="8" r:id="rId3"/>
+    <sheet name="DIEMSV" sheetId="9" r:id="rId4"/>
+    <sheet name="GVMH" sheetId="10" r:id="rId5"/>
+    <sheet name="LOP" sheetId="11" r:id="rId6"/>
+    <sheet name="MONHOC" sheetId="12" r:id="rId7"/>
+    <sheet name="SINHVIEN" sheetId="13" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,13 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="113">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>HoTen</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="137">
   <si>
     <t>NgaySinh</t>
   </si>
@@ -56,48 +51,21 @@
     <t>Khoa</t>
   </si>
   <si>
-    <t>Lop</t>
-  </si>
-  <si>
-    <t>Khoas</t>
-  </si>
-  <si>
     <t>MaTinChi</t>
   </si>
   <si>
-    <t>SoTinChi</t>
-  </si>
-  <si>
     <t>DiemQT</t>
   </si>
   <si>
     <t>DiemThi</t>
   </si>
   <si>
-    <t>GPA</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Mem</t>
-  </si>
-  <si>
-    <t>TenGiaoVien</t>
-  </si>
-  <si>
-    <t>MonThi</t>
-  </si>
-  <si>
     <t>CaThi</t>
   </si>
   <si>
     <t>NgayThi</t>
   </si>
   <si>
-    <t>PhongThi</t>
-  </si>
-  <si>
     <t>TenMonHoc</t>
   </si>
   <si>
@@ -377,20 +345,132 @@
     <t>4.2</t>
   </si>
   <si>
-    <t>Mamonhoc</t>
-  </si>
-  <si>
-    <t>Tenmonhoc</t>
+    <t>MaGV</t>
+  </si>
+  <si>
+    <t>TenGV</t>
+  </si>
+  <si>
+    <t>GioiTinh</t>
+  </si>
+  <si>
+    <t>DiaChi</t>
+  </si>
+  <si>
+    <t>MatKhau</t>
+  </si>
+  <si>
+    <t>VaiTro</t>
+  </si>
+  <si>
+    <t>MaSV</t>
+  </si>
+  <si>
+    <t>MaMH</t>
+  </si>
+  <si>
+    <t>LanThi</t>
+  </si>
+  <si>
+    <t>Ngaybd</t>
+  </si>
+  <si>
+    <t>Phonghoc</t>
+  </si>
+  <si>
+    <t>MaLop</t>
+  </si>
+  <si>
+    <t>Nganh</t>
+  </si>
+  <si>
+    <t>Nienkhoa</t>
+  </si>
+  <si>
+    <t>TenMH</t>
+  </si>
+  <si>
+    <t>SoTC</t>
+  </si>
+  <si>
+    <t>TenSV</t>
+  </si>
+  <si>
+    <t>64ANM1</t>
+  </si>
+  <si>
+    <t>Công nghệ thông tin</t>
+  </si>
+  <si>
+    <t>An ninh mạng</t>
+  </si>
+  <si>
+    <t>K64</t>
+  </si>
+  <si>
+    <t>64ANM2</t>
+  </si>
+  <si>
+    <t>64HTTT1</t>
+  </si>
+  <si>
+    <t>64HTTT2</t>
+  </si>
+  <si>
+    <t>64HTTT3</t>
+  </si>
+  <si>
+    <t>64HTTT4</t>
+  </si>
+  <si>
+    <t>Hệ thống thông tin</t>
+  </si>
+  <si>
+    <t>64CNTT1</t>
+  </si>
+  <si>
+    <t>64CNTT2</t>
+  </si>
+  <si>
+    <t>64TTNT1</t>
+  </si>
+  <si>
+    <t>64TTNT2</t>
+  </si>
+  <si>
+    <t>64KTPM1</t>
+  </si>
+  <si>
+    <t>64KTPM2</t>
+  </si>
+  <si>
+    <t>64KTPM3</t>
+  </si>
+  <si>
+    <t>64KTPM4</t>
+  </si>
+  <si>
+    <t>64KTPM5</t>
+  </si>
+  <si>
+    <t>Kỹ thuật phần mềm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
@@ -552,8 +632,8 @@
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>257175</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>257175</xdr:rowOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -563,7 +643,7 @@
                   <a14:compatExt spid="_x0000_s6145"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09B0B634-D548-D56E-20C7-A7DE139B2841}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000001180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -613,7 +693,7 @@
                   <a14:compatExt spid="_x0000_s6146"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60B389DE-8CF4-2DE4-CA68-0B06F35BC5A8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -652,8 +732,8 @@
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>257175</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>257175</xdr:rowOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -663,7 +743,7 @@
                   <a14:compatExt spid="_x0000_s6147"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F6C59FA-CCBB-FB67-8D0E-88577EBF1644}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -702,8 +782,8 @@
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>257175</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>257175</xdr:rowOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -713,7 +793,7 @@
                   <a14:compatExt spid="_x0000_s6148"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C4E28F1-6E7F-D393-3627-13496E6E20A7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -752,8 +832,8 @@
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>257175</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>257175</xdr:rowOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -763,7 +843,7 @@
                   <a14:compatExt spid="_x0000_s6149"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C5DA9E5-2008-D96F-D7BC-8D5B600F50F0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -813,7 +893,7 @@
                   <a14:compatExt spid="_x0000_s6150"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3444187-93E2-156C-B70B-789153E75E3B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -852,8 +932,8 @@
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>257175</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>257175</xdr:rowOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -863,7 +943,7 @@
                   <a14:compatExt spid="_x0000_s6151"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C098A92E-B208-2ADD-9C82-90FE16DAE75A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -902,8 +982,8 @@
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>257175</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>257175</xdr:rowOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -913,7 +993,7 @@
                   <a14:compatExt spid="_x0000_s6152"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2FD5909-189A-583D-B123-040D35CDD365}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -952,8 +1032,8 @@
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>257175</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>257175</xdr:rowOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -963,7 +1043,7 @@
                   <a14:compatExt spid="_x0000_s6153"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7511B315-CE3E-65B2-DA03-676B2997CC7B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1013,7 +1093,7 @@
                   <a14:compatExt spid="_x0000_s6154"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A2E3F4E-26A5-73AE-C3DC-57472EF35E59}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1063,7 +1143,7 @@
                   <a14:compatExt spid="_x0000_s6155"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71DA8DFD-6F72-3D8C-7444-2872C06C1C10}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1102,8 +1182,8 @@
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>257175</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>257175</xdr:rowOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1113,7 +1193,7 @@
                   <a14:compatExt spid="_x0000_s6156"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C6030C5-E4CC-07BA-7733-0C6B40B7DA14}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1152,8 +1232,8 @@
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>257175</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>257175</xdr:rowOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1163,7 +1243,7 @@
                   <a14:compatExt spid="_x0000_s6157"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38D7F9CB-F5A7-F69C-497C-C1CEF899102E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1213,7 +1293,7 @@
                   <a14:compatExt spid="_x0000_s6158"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EBB4271-2DDF-5F4E-6F01-86C73A063136}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1252,8 +1332,8 @@
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>257175</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>257175</xdr:rowOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1263,7 +1343,7 @@
                   <a14:compatExt spid="_x0000_s6159"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEE7C03F-F355-0F09-2C68-B7BB9509D238}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1313,7 +1393,7 @@
                   <a14:compatExt spid="_x0000_s6160"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{983C33F2-3B71-6E6C-2A65-A4DFB30982C0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000010180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1352,8 +1432,8 @@
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>257175</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>257175</xdr:rowOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1363,7 +1443,7 @@
                   <a14:compatExt spid="_x0000_s6161"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02364CEB-B3D1-FD05-139D-B440F1C6ABD7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1413,7 +1493,7 @@
                   <a14:compatExt spid="_x0000_s6162"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D0C67F8-4A7C-6692-AFE9-2D1CC69EC2B8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1452,8 +1532,8 @@
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>257175</xdr:colOff>
-          <xdr:row>18</xdr:row>
-          <xdr:rowOff>257175</xdr:rowOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1463,7 +1543,7 @@
                   <a14:compatExt spid="_x0000_s6163"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6A8ADB9-2091-41FB-9608-3D84FD4AE016}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1502,8 +1582,8 @@
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>257175</xdr:colOff>
-          <xdr:row>19</xdr:row>
-          <xdr:rowOff>257175</xdr:rowOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1513,7 +1593,7 @@
                   <a14:compatExt spid="_x0000_s6164"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3DC659F-A80E-31CD-A23A-3E4777A64D83}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000014180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1552,8 +1632,8 @@
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>257175</xdr:colOff>
-          <xdr:row>20</xdr:row>
-          <xdr:rowOff>257175</xdr:rowOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1563,7 +1643,7 @@
                   <a14:compatExt spid="_x0000_s6165"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A75D957-845E-FFCD-A97F-162232F9B1FE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000015180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1602,8 +1682,8 @@
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>257175</xdr:colOff>
-          <xdr:row>21</xdr:row>
-          <xdr:rowOff>257175</xdr:rowOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1613,7 +1693,7 @@
                   <a14:compatExt spid="_x0000_s6166"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F65312B-E4CD-6EB7-363A-1A02C433D35F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000016180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1663,7 +1743,7 @@
                   <a14:compatExt spid="_x0000_s6167"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{525A8239-4DC6-ADF9-8DB7-E6B4D27F9523}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000017180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1702,8 +1782,8 @@
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>257175</xdr:colOff>
-          <xdr:row>23</xdr:row>
-          <xdr:rowOff>257175</xdr:rowOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1713,7 +1793,7 @@
                   <a14:compatExt spid="_x0000_s6168"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F204D17E-0688-F395-46A2-F25F18CB57F4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000018180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2059,118 +2139,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25BEDA8B-C007-476C-B301-BA9C4A0F6874}">
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.375" customWidth="1"/>
-    <col min="2" max="2" width="18.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95BB98F-9E06-4871-82E1-4E86F24A6E77}">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="18.125" customWidth="1"/>
-    <col min="3" max="3" width="17.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D45ABD24-E867-464B-A247-F007B4126524}">
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="16.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA5AFDA-7738-41DF-B305-53CBCC31CC6E}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2186,217 +2159,217 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="2" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="B11" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2404,47 +2377,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4AEB537-0E19-4889-AA33-2BD3648F023B}">
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982953CC-907D-497F-96C1-26A39BB8805C}">
   <sheetPr codeName="Trang_tính1"/>
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
@@ -2455,15 +2393,15 @@
     <col min="9" max="9" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1">
         <v>1</v>
@@ -2476,7 +2414,7 @@
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I1" s="1">
         <v>2251172491</v>
@@ -2491,7 +2429,7 @@
         <v>5</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
@@ -2499,10 +2437,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -2515,7 +2453,7 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="I2" s="1">
         <v>2251172491</v>
@@ -2530,18 +2468,18 @@
         <v>0</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1">
         <v>3</v>
@@ -2554,33 +2492,33 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I3" s="1">
         <v>2251172491</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="L3" s="1">
         <v>8</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -2593,33 +2531,33 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I4" s="1">
         <v>2251172491</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
@@ -2632,22 +2570,22 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I5" s="1">
         <v>2251172491</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -2655,10 +2593,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -2671,7 +2609,7 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I6" s="1">
         <v>2251172491</v>
@@ -2683,21 +2621,21 @@
         <v>6</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
@@ -2710,33 +2648,33 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I7" s="1">
         <v>2251172491</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D8" s="1">
         <v>3</v>
@@ -2749,7 +2687,7 @@
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I8" s="1">
         <v>2251172491</v>
@@ -2761,21 +2699,21 @@
         <v>5</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D9" s="1">
         <v>3</v>
@@ -2788,7 +2726,7 @@
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I9" s="1">
         <v>2251172491</v>
@@ -2797,24 +2735,24 @@
         <v>8</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D10" s="1">
         <v>3</v>
@@ -2827,7 +2765,7 @@
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I10" s="1">
         <v>2251172491</v>
@@ -2839,21 +2777,21 @@
         <v>7</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="71.25" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
@@ -2866,33 +2804,33 @@
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I11" s="1">
         <v>2251172491</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="K11" s="1">
         <v>7</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D12" s="1">
         <v>3</v>
@@ -2905,33 +2843,33 @@
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I12" s="1">
         <v>2251172491</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D13" s="1">
         <v>3</v>
@@ -2944,7 +2882,7 @@
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I13" s="1">
         <v>2251172491</v>
@@ -2953,24 +2891,24 @@
         <v>10</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="57" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D14" s="1">
         <v>3</v>
@@ -2983,33 +2921,33 @@
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I14" s="1">
         <v>2251172491</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D15" s="1">
         <v>3</v>
@@ -3022,22 +2960,22 @@
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I15" s="1">
         <v>2251172491</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -3045,10 +2983,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -3061,7 +2999,7 @@
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I16" s="1">
         <v>2251172491</v>
@@ -3076,18 +3014,18 @@
         <v>9</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D17" s="1">
         <v>3</v>
@@ -3100,22 +3038,22 @@
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I17" s="1">
         <v>2251172491</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
@@ -3123,10 +3061,10 @@
         <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D18" s="1">
         <v>3</v>
@@ -3139,33 +3077,33 @@
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="I18" s="1">
         <v>2251172491</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K18" s="1">
         <v>0</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D19" s="1">
         <v>6</v>
@@ -3178,7 +3116,7 @@
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I19" s="1">
         <v>2251172491</v>
@@ -3186,21 +3124,21 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D20" s="1">
         <v>3</v>
@@ -3213,33 +3151,33 @@
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I20" s="1">
         <v>2251172491</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D21" s="1">
         <v>3</v>
@@ -3252,33 +3190,33 @@
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I21" s="1">
         <v>2251172491</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D22" s="1">
         <v>3</v>
@@ -3291,22 +3229,22 @@
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I22" s="1">
         <v>2251172491</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="K22" s="1">
         <v>8</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -3314,10 +3252,10 @@
         <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
@@ -3330,7 +3268,7 @@
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I23" s="1">
         <v>2251172491</v>
@@ -3342,21 +3280,21 @@
         <v>7</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>24</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D24" s="1">
         <v>3</v>
@@ -3369,22 +3307,22 @@
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I24" s="1">
         <v>2251172491</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="K24" s="1">
         <v>2</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -3394,19 +3332,44 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="6168" r:id="rId3" name="Control 24">
+        <control shapeId="6145" r:id="rId3" name="Control 1">
           <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>23</xdr:row>
+                <xdr:row>0</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>23</xdr:row>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="6145" r:id="rId3" name="Control 1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="6146" r:id="rId5" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>257175</xdr:rowOff>
               </to>
             </anchor>
@@ -3414,13 +3377,513 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="6168" r:id="rId3" name="Control 24"/>
+        <control shapeId="6146" r:id="rId5" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="6167" r:id="rId5" name="Control 23">
-          <controlPr defaultSize="0" r:id="rId6">
+        <control shapeId="6147" r:id="rId6" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="6147" r:id="rId6" name="Control 3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="6148" r:id="rId8" name="Control 4">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="6148" r:id="rId8" name="Control 4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="6149" r:id="rId9" name="Control 5">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="6149" r:id="rId9" name="Control 5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="6150" r:id="rId10" name="Control 6">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="6150" r:id="rId10" name="Control 6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="6151" r:id="rId11" name="Control 7">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="6151" r:id="rId11" name="Control 7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="6152" r:id="rId12" name="Control 8">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="6152" r:id="rId12" name="Control 8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="6153" r:id="rId13" name="Control 9">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="6153" r:id="rId13" name="Control 9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="6154" r:id="rId14" name="Control 10">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>257175</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="6154" r:id="rId14" name="Control 10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="6155" r:id="rId15" name="Control 11">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>257175</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="6155" r:id="rId15" name="Control 11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="6156" r:id="rId16" name="Control 12">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="6156" r:id="rId16" name="Control 12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="6157" r:id="rId17" name="Control 13">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="6157" r:id="rId17" name="Control 13"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="6158" r:id="rId18" name="Control 14">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>257175</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="6158" r:id="rId18" name="Control 14"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="6159" r:id="rId19" name="Control 15">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="6159" r:id="rId19" name="Control 15"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="6160" r:id="rId20" name="Control 16">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="6160" r:id="rId20" name="Control 16"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="6161" r:id="rId21" name="Control 17">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="6161" r:id="rId21" name="Control 17"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="6162" r:id="rId22" name="Control 18">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>257175</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="6162" r:id="rId22" name="Control 18"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="6163" r:id="rId23" name="Control 19">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="6163" r:id="rId23" name="Control 19"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="6164" r:id="rId24" name="Control 20">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="6164" r:id="rId24" name="Control 20"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="6165" r:id="rId25" name="Control 21">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="6165" r:id="rId25" name="Control 21"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="6166" r:id="rId26" name="Control 22">
+          <controlPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="6166" r:id="rId26" name="Control 22"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="6167" r:id="rId27" name="Control 23">
+          <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
@@ -3439,174 +3902,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="6167" r:id="rId5" name="Control 23"/>
+        <control shapeId="6167" r:id="rId27" name="Control 23"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="6166" r:id="rId7" name="Control 22">
-          <controlPr defaultSize="0" r:id="rId4">
+        <control shapeId="6168" r:id="rId28" name="Control 24">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>21</xdr:row>
+                <xdr:row>23</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>257175</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="6166" r:id="rId7" name="Control 22"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="6165" r:id="rId8" name="Control 21">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>257175</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="6165" r:id="rId8" name="Control 21"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="6164" r:id="rId9" name="Control 20">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>257175</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="6164" r:id="rId9" name="Control 20"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="6163" r:id="rId10" name="Control 19">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>257175</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="6163" r:id="rId10" name="Control 19"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="6162" r:id="rId11" name="Control 18">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>257175</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="6162" r:id="rId11" name="Control 18"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="6161" r:id="rId12" name="Control 17">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>257175</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="6161" r:id="rId12" name="Control 17"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="6160" r:id="rId13" name="Control 16">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>16</xdr:row>
+                <xdr:row>24</xdr:row>
                 <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
@@ -3614,408 +3927,698 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="6160" r:id="rId13" name="Control 16"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="6159" r:id="rId14" name="Control 15">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>257175</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="6159" r:id="rId14" name="Control 15"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="6158" r:id="rId15" name="Control 14">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>257175</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="6158" r:id="rId15" name="Control 14"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="6157" r:id="rId16" name="Control 13">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>257175</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="6157" r:id="rId16" name="Control 13"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="6156" r:id="rId17" name="Control 12">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>257175</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="6156" r:id="rId17" name="Control 12"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="6155" r:id="rId18" name="Control 11">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>257175</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="6155" r:id="rId18" name="Control 11"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="6154" r:id="rId19" name="Control 10">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>257175</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="6154" r:id="rId19" name="Control 10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="6153" r:id="rId20" name="Control 9">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>257175</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="6153" r:id="rId20" name="Control 9"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="6152" r:id="rId21" name="Control 8">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>257175</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="6152" r:id="rId21" name="Control 8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="6151" r:id="rId22" name="Control 7">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>257175</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="6151" r:id="rId22" name="Control 7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="6150" r:id="rId23" name="Control 6">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="6150" r:id="rId23" name="Control 6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="6149" r:id="rId24" name="Control 5">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>257175</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="6149" r:id="rId24" name="Control 5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="6148" r:id="rId25" name="Control 4">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>257175</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="6148" r:id="rId25" name="Control 4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="6147" r:id="rId26" name="Control 3">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>257175</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="6147" r:id="rId26" name="Control 3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="6146" r:id="rId27" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>257175</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="6146" r:id="rId27" name="Control 2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="6145" r:id="rId28" name="Control 1">
-          <controlPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>257175</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="6145" r:id="rId28" name="Control 1"/>
+        <control shapeId="6168" r:id="rId28" name="Control 24"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{449C5CD5-C880-4898-ACB1-315D3BB461B0}">
-  <dimension ref="A1:B1"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB644288-C5A7-4418-B163-6911149B6A64}">
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{551ACEE3-73EF-4115-BBA9-F8FA495F16EC}">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB6EF398-9BFC-43CC-A7CB-A4F83E819CCE}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.625" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="11.125" customWidth="1"/>
+    <col min="5" max="5" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3865EC66-606D-49A9-8C94-908A6D1C15A6}">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="2" max="3" width="17.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>111</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>112</v>
+      </c>
+      <c r="D1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{057CD0B1-CE2C-42F9-84CC-2B1BEA1CD256}">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="32.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{250D15DE-FAC0-4023-8A0F-5ADAD22EF218}">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lesyt\OneDrive - Thanglele\DATA-LEARNING\C#\SchoolEdu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Documents\Zalo Received Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20B2B3A-99BB-4FA6-ABBF-BC54C9F42192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BF77A4-9BFA-4DF1-BEDE-FFD0D5CCF1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{FB706267-7A05-4D03-A38D-A1D6E09A9BBD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FB706267-7A05-4D03-A38D-A1D6E09A9BBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Tinchi" sheetId="4" r:id="rId1"/>
@@ -27,23 +27,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="321">
   <si>
     <t>NgaySinh</t>
   </si>
@@ -81,9 +70,6 @@
     <t>PhongHoc</t>
   </si>
   <si>
-    <t>ThongTinGiaoVien</t>
-  </si>
-  <si>
     <t>BC111</t>
   </si>
   <si>
@@ -348,9 +334,6 @@
     <t>MaGV</t>
   </si>
   <si>
-    <t>TenGV</t>
-  </si>
-  <si>
     <t>GioiTinh</t>
   </si>
   <si>
@@ -372,12 +355,6 @@
     <t>LanThi</t>
   </si>
   <si>
-    <t>Ngaybd</t>
-  </si>
-  <si>
-    <t>Phonghoc</t>
-  </si>
-  <si>
     <t>MaLop</t>
   </si>
   <si>
@@ -454,6 +431,570 @@
   </si>
   <si>
     <t>Kỹ thuật phần mềm</t>
+  </si>
+  <si>
+    <t>64CNTT4</t>
+  </si>
+  <si>
+    <t>64ANM3</t>
+  </si>
+  <si>
+    <t>64HTTT5</t>
+  </si>
+  <si>
+    <t>64TTNT3</t>
+  </si>
+  <si>
+    <t>64TTNT4</t>
+  </si>
+  <si>
+    <t>64TTNT5</t>
+  </si>
+  <si>
+    <t>64ANM4</t>
+  </si>
+  <si>
+    <t>64ANM5</t>
+  </si>
+  <si>
+    <t>64CNTT3</t>
+  </si>
+  <si>
+    <t>64CNTT5</t>
+  </si>
+  <si>
+    <t>Nguyễn Tuấn Nam</t>
+  </si>
+  <si>
+    <t>Nam</t>
+  </si>
+  <si>
+    <t>Hà Nội</t>
+  </si>
+  <si>
+    <t>Hoàng Lan Anh</t>
+  </si>
+  <si>
+    <t>Nữ</t>
+  </si>
+  <si>
+    <t>Thái Bình</t>
+  </si>
+  <si>
+    <t>Nguyễn Anh Phong</t>
+  </si>
+  <si>
+    <t>Tuyên Quang</t>
+  </si>
+  <si>
+    <t>Vũ Hoài Ly</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Hường</t>
+  </si>
+  <si>
+    <t>Lê Quang Huy</t>
+  </si>
+  <si>
+    <t>Gia Lai</t>
+  </si>
+  <si>
+    <t>Hòa Bình</t>
+  </si>
+  <si>
+    <t>Nguyễn Linh Chi</t>
+  </si>
+  <si>
+    <t>Nguyễn Thanh Phương</t>
+  </si>
+  <si>
+    <t>30/8/2004</t>
+  </si>
+  <si>
+    <t>20/10/2004</t>
+  </si>
+  <si>
+    <t>Hà Nam</t>
+  </si>
+  <si>
+    <t>Trần Minh Hoàng</t>
+  </si>
+  <si>
+    <t>Mai Việt Hưng</t>
+  </si>
+  <si>
+    <t>13/7/2004</t>
+  </si>
+  <si>
+    <t>Bắc Kạn</t>
+  </si>
+  <si>
+    <t>Cao Bằng</t>
+  </si>
+  <si>
+    <t>Trần Thị Kiều Oanh</t>
+  </si>
+  <si>
+    <t>Nguyễn Thu Trang</t>
+  </si>
+  <si>
+    <t>Vũ Tuấn Anh</t>
+  </si>
+  <si>
+    <t>Trần Văn Hải</t>
+  </si>
+  <si>
+    <t>Nguyễn Phú Cường</t>
+  </si>
+  <si>
+    <t>17/3/2004</t>
+  </si>
+  <si>
+    <t>28/2/2004</t>
+  </si>
+  <si>
+    <t>16/7/2004</t>
+  </si>
+  <si>
+    <t>Sóc Sơn</t>
+  </si>
+  <si>
+    <t>Thanh Hóa</t>
+  </si>
+  <si>
+    <t>Nghiêm Hoài Như</t>
+  </si>
+  <si>
+    <t>21/4/2004</t>
+  </si>
+  <si>
+    <t>Đỗ Thanh Tâm</t>
+  </si>
+  <si>
+    <t>27/12/2004</t>
+  </si>
+  <si>
+    <t>Hà Giang</t>
+  </si>
+  <si>
+    <t>Nguyễn Tuấn Dương</t>
+  </si>
+  <si>
+    <t>24/1/2004</t>
+  </si>
+  <si>
+    <t>Nguyễn Thùy Dương</t>
+  </si>
+  <si>
+    <t>Vũ Đức Long</t>
+  </si>
+  <si>
+    <t>Trần Anh Khoa</t>
+  </si>
+  <si>
+    <t>19/8/2004</t>
+  </si>
+  <si>
+    <t>23/10/2004</t>
+  </si>
+  <si>
+    <t>Đặng Mỹ Ngọc</t>
+  </si>
+  <si>
+    <t>Nguyễn Thanh Huyền</t>
+  </si>
+  <si>
+    <t>Nguyễn Quang Huy</t>
+  </si>
+  <si>
+    <t>Hoàng Văn Đức</t>
+  </si>
+  <si>
+    <t>24/5/2004</t>
+  </si>
+  <si>
+    <t>13/11/2004</t>
+  </si>
+  <si>
+    <t>25/3/2004</t>
+  </si>
+  <si>
+    <t>18/12/2004</t>
+  </si>
+  <si>
+    <t>Ninh Bình</t>
+  </si>
+  <si>
+    <t>Quảng Bình</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quảng Ninh </t>
+  </si>
+  <si>
+    <t>Lạng Sơn</t>
+  </si>
+  <si>
+    <t>Điện Biên</t>
+  </si>
+  <si>
+    <t>GV01</t>
+  </si>
+  <si>
+    <t>GV02</t>
+  </si>
+  <si>
+    <t>GV03</t>
+  </si>
+  <si>
+    <t>GV04</t>
+  </si>
+  <si>
+    <t>GV05</t>
+  </si>
+  <si>
+    <t>GV06</t>
+  </si>
+  <si>
+    <t>GV07</t>
+  </si>
+  <si>
+    <t>GV08</t>
+  </si>
+  <si>
+    <t>GV09</t>
+  </si>
+  <si>
+    <t>GV10</t>
+  </si>
+  <si>
+    <t>GV11</t>
+  </si>
+  <si>
+    <t>GV12</t>
+  </si>
+  <si>
+    <t>GV13</t>
+  </si>
+  <si>
+    <t>GV14</t>
+  </si>
+  <si>
+    <t>GV15</t>
+  </si>
+  <si>
+    <t>GV16</t>
+  </si>
+  <si>
+    <t>GV17</t>
+  </si>
+  <si>
+    <t>GV18</t>
+  </si>
+  <si>
+    <t>GV19</t>
+  </si>
+  <si>
+    <t>GV20</t>
+  </si>
+  <si>
+    <t>GV21</t>
+  </si>
+  <si>
+    <t>GV22</t>
+  </si>
+  <si>
+    <t>GV23</t>
+  </si>
+  <si>
+    <t>GV24</t>
+  </si>
+  <si>
+    <t>GV25</t>
+  </si>
+  <si>
+    <t>GV26</t>
+  </si>
+  <si>
+    <t>Nguyễn Thu Hương</t>
+  </si>
+  <si>
+    <t>Giáo Viên</t>
+  </si>
+  <si>
+    <t>Trần Mạnh Tuấn</t>
+  </si>
+  <si>
+    <t>Trần Thu Hà</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Phương Thảo</t>
+  </si>
+  <si>
+    <t>Lương Thị Hồng Lan</t>
+  </si>
+  <si>
+    <t>Trần Hồng Diệp</t>
+  </si>
+  <si>
+    <t>Hoàng Văn Đoan</t>
+  </si>
+  <si>
+    <t>Trần Tiến Hải</t>
+  </si>
+  <si>
+    <t>Phạm Thị Phương Thảo</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Thẩm</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Huy</t>
+  </si>
+  <si>
+    <t>Lê Thế Sắc</t>
+  </si>
+  <si>
+    <t>Bùi Thị Thanh Xuân</t>
+  </si>
+  <si>
+    <t>Lê Đức Hậu</t>
+  </si>
+  <si>
+    <t>Trần Lưu Ly</t>
+  </si>
+  <si>
+    <t>HoTen</t>
+  </si>
+  <si>
+    <t>Lê Nguyễn Tuấn Thành</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Lý</t>
+  </si>
+  <si>
+    <t>Đoàn Thị Quế</t>
+  </si>
+  <si>
+    <t>Nguyễn Thọ Thông</t>
+  </si>
+  <si>
+    <t>Nguyễn Tu Trung</t>
+  </si>
+  <si>
+    <t>Cù Việt Dũng</t>
+  </si>
+  <si>
+    <t>Bắc Ninh</t>
+  </si>
+  <si>
+    <t>Quảng Ninh</t>
+  </si>
+  <si>
+    <t>Haỉ Dương</t>
+  </si>
+  <si>
+    <t>Hưng Yên</t>
+  </si>
+  <si>
+    <t>Nam Định</t>
+  </si>
+  <si>
+    <t>Vĩnh Phúc</t>
+  </si>
+  <si>
+    <t>Thái Nguyên</t>
+  </si>
+  <si>
+    <t>Phú Thọ</t>
+  </si>
+  <si>
+    <t>Yên Bái</t>
+  </si>
+  <si>
+    <t>Nghệ An</t>
+  </si>
+  <si>
+    <t>Bắc Giang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hà Nội </t>
+  </si>
+  <si>
+    <t>Lào Cai</t>
+  </si>
+  <si>
+    <t>Hà Tĩnh</t>
+  </si>
+  <si>
+    <t>Đà Nẵng</t>
+  </si>
+  <si>
+    <t>Nguyễn Thế Nam</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thu Giang</t>
+  </si>
+  <si>
+    <t>Trần Minh Tiến</t>
+  </si>
+  <si>
+    <t>Phan Thanh Lam</t>
+  </si>
+  <si>
+    <t>23/4/1980</t>
+  </si>
+  <si>
+    <t>14/12/1978</t>
+  </si>
+  <si>
+    <t>17/3/1971</t>
+  </si>
+  <si>
+    <t>16/2/1975</t>
+  </si>
+  <si>
+    <t>15/9/1982</t>
+  </si>
+  <si>
+    <t>16/6/1986</t>
+  </si>
+  <si>
+    <t>25/10/1976</t>
+  </si>
+  <si>
+    <t>18/9/1987</t>
+  </si>
+  <si>
+    <t>25/11/1970</t>
+  </si>
+  <si>
+    <t>17/8/1981</t>
+  </si>
+  <si>
+    <t>30/12/1986</t>
+  </si>
+  <si>
+    <t>31/5/1971</t>
+  </si>
+  <si>
+    <t>21/10/1982</t>
+  </si>
+  <si>
+    <t>23/6/1984</t>
+  </si>
+  <si>
+    <t>29/3/1987</t>
+  </si>
+  <si>
+    <t>27/9/1969</t>
+  </si>
+  <si>
+    <t>29/1/1985</t>
+  </si>
+  <si>
+    <t>21/5/1982</t>
+  </si>
+  <si>
+    <t>17/10/1980</t>
+  </si>
+  <si>
+    <t>15/11/1961</t>
+  </si>
+  <si>
+    <t>17/10/2023</t>
+  </si>
+  <si>
+    <t>23/1/2024</t>
+  </si>
+  <si>
+    <t>17/12/2023</t>
+  </si>
+  <si>
+    <t>Sân bóng chuyền 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sân bóng đá </t>
+  </si>
+  <si>
+    <t>Sân điền kinh</t>
+  </si>
+  <si>
+    <t>309-B5</t>
+  </si>
+  <si>
+    <t>308-B5</t>
+  </si>
+  <si>
+    <t>402-A4</t>
+  </si>
+  <si>
+    <t>108-A4</t>
+  </si>
+  <si>
+    <t>302-A4</t>
+  </si>
+  <si>
+    <t>404-A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sân tennis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sân cầu lông </t>
+  </si>
+  <si>
+    <t>Room 4</t>
+  </si>
+  <si>
+    <t>Room 11</t>
+  </si>
+  <si>
+    <t>Room 6</t>
+  </si>
+  <si>
+    <t>302-B5</t>
+  </si>
+  <si>
+    <t>305-B5</t>
+  </si>
+  <si>
+    <t>BR111</t>
+  </si>
+  <si>
+    <t>Bóng rổ</t>
+  </si>
+  <si>
+    <t>Sân bóng rổ</t>
+  </si>
+  <si>
+    <t>25/12/2022</t>
+  </si>
+  <si>
+    <t>17/1/2023</t>
+  </si>
+  <si>
+    <t>20/1/2023</t>
+  </si>
+  <si>
+    <t>13/4/2023</t>
+  </si>
+  <si>
+    <t>19/6/2023</t>
+  </si>
+  <si>
+    <t>21/6/2023</t>
+  </si>
+  <si>
+    <t>23/8/2023</t>
+  </si>
+  <si>
+    <t>26/8/2023</t>
+  </si>
+  <si>
+    <t>29/8/2023</t>
+  </si>
+  <si>
+    <t>31/8/2023</t>
   </si>
 </sst>
 </file>
@@ -464,14 +1005,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Arial"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -497,7 +1038,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -505,9 +1046,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -631,9 +1184,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>228600</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -643,7 +1196,7 @@
                   <a14:compatExt spid="_x0000_s6145"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000001180000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -681,9 +1234,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>228600</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>257175</xdr:rowOff>
+          <xdr:rowOff>243840</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -693,7 +1246,7 @@
                   <a14:compatExt spid="_x0000_s6146"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002180000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -731,9 +1284,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>228600</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -743,7 +1296,7 @@
                   <a14:compatExt spid="_x0000_s6147"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003180000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -781,9 +1334,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>228600</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -793,7 +1346,7 @@
                   <a14:compatExt spid="_x0000_s6148"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004180000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -831,9 +1384,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>228600</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -843,7 +1396,7 @@
                   <a14:compatExt spid="_x0000_s6149"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005180000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -881,9 +1434,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>228600</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -893,7 +1446,7 @@
                   <a14:compatExt spid="_x0000_s6150"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006180000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -931,9 +1484,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>228600</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -943,7 +1496,7 @@
                   <a14:compatExt spid="_x0000_s6151"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007180000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -981,9 +1534,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>228600</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -993,7 +1546,7 @@
                   <a14:compatExt spid="_x0000_s6152"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008180000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1031,9 +1584,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>228600</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1043,7 +1596,7 @@
                   <a14:compatExt spid="_x0000_s6153"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009180000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1081,9 +1634,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>228600</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>257175</xdr:rowOff>
+          <xdr:rowOff>243840</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1093,7 +1646,7 @@
                   <a14:compatExt spid="_x0000_s6154"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A180000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1131,9 +1684,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>257175</xdr:rowOff>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1143,7 +1696,7 @@
                   <a14:compatExt spid="_x0000_s6155"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B180000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1181,9 +1734,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>228600</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1193,7 +1746,7 @@
                   <a14:compatExt spid="_x0000_s6156"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C180000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1231,9 +1784,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>228600</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1243,7 +1796,7 @@
                   <a14:compatExt spid="_x0000_s6157"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D180000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1281,9 +1834,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>228600</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>257175</xdr:rowOff>
+          <xdr:rowOff>243840</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1293,7 +1846,7 @@
                   <a14:compatExt spid="_x0000_s6158"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E180000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1331,9 +1884,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>228600</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1343,7 +1896,7 @@
                   <a14:compatExt spid="_x0000_s6159"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F180000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1381,9 +1934,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>228600</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1393,7 +1946,7 @@
                   <a14:compatExt spid="_x0000_s6160"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000010180000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1431,9 +1984,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>228600</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1443,7 +1996,7 @@
                   <a14:compatExt spid="_x0000_s6161"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011180000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1481,9 +2034,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>228600</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>257175</xdr:rowOff>
+          <xdr:rowOff>243840</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1493,7 +2046,7 @@
                   <a14:compatExt spid="_x0000_s6162"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012180000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1531,9 +2084,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>228600</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1543,7 +2096,7 @@
                   <a14:compatExt spid="_x0000_s6163"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013180000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1581,9 +2134,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>228600</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1593,7 +2146,7 @@
                   <a14:compatExt spid="_x0000_s6164"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000014180000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1631,9 +2184,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>228600</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1643,7 +2196,7 @@
                   <a14:compatExt spid="_x0000_s6165"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000015180000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1681,9 +2234,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>228600</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1693,7 +2246,7 @@
                   <a14:compatExt spid="_x0000_s6166"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000016180000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1731,9 +2284,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>228600</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1743,7 +2296,7 @@
                   <a14:compatExt spid="_x0000_s6167"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000017180000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1781,9 +2334,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
+          <xdr:colOff>228600</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1793,7 +2346,7 @@
                   <a14:compatExt spid="_x0000_s6168"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000018180000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2140,34 +2693,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA5AFDA-7738-41DF-B305-53CBCC31CC6E}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.375" customWidth="1"/>
-    <col min="2" max="2" width="38.625" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="18.125" customWidth="1"/>
-    <col min="5" max="5" width="17.375" customWidth="1"/>
-    <col min="6" max="6" width="16.125" customWidth="1"/>
-    <col min="7" max="7" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17" style="4" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E1" t="s">
@@ -2177,199 +2729,601 @@
         <v>11</v>
       </c>
       <c r="G1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="3">
+        <v>44844</v>
+      </c>
+      <c r="D2" s="3">
+        <f>SUM(C2, 2)</f>
+        <v>44846</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>292</v>
+      </c>
+      <c r="G2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="3">
+        <v>44844</v>
+      </c>
+      <c r="D3" s="3">
+        <f t="shared" ref="D3:D26" si="0">SUM(C3, 2)</f>
+        <v>44846</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>293</v>
+      </c>
+      <c r="G3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="3">
+        <v>45269</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" si="0"/>
+        <v>45271</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>295</v>
+      </c>
+      <c r="G4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="3">
+        <v>45269</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>45271</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>296</v>
+      </c>
+      <c r="G5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="B6" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="C6" s="3">
+        <v>44840</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>44842</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>295</v>
+      </c>
+      <c r="G6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C7" s="3">
+        <v>44840</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>44842</v>
+      </c>
+      <c r="E7">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C8" s="3">
+        <v>44904</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>44906</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>297</v>
+      </c>
+      <c r="G8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C9" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>297</v>
+      </c>
+      <c r="G9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C10" s="3">
+        <v>45269</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>45271</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>295</v>
+      </c>
+      <c r="G10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C11" s="3">
+        <v>44844</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>44846</v>
+      </c>
+      <c r="E11">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>298</v>
+      </c>
+      <c r="G11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C12" s="3">
+        <v>45209</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>45211</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>299</v>
+      </c>
+      <c r="G12" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C13" s="3">
+        <v>45205</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>45207</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13" t="s">
+        <v>300</v>
+      </c>
+      <c r="G13" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C14" s="3">
+        <v>45205</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>45207</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14" t="s">
+        <v>300</v>
+      </c>
+      <c r="G14" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C15" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>296</v>
+      </c>
+      <c r="G15" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16" s="3">
+        <v>45205</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" si="0"/>
+        <v>45207</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>300</v>
+      </c>
+      <c r="G16" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E17">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
+        <v>301</v>
+      </c>
+      <c r="G17" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18" s="3">
+        <v>45205</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" si="0"/>
+        <v>45207</v>
+      </c>
+      <c r="E18">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
+        <v>303</v>
+      </c>
+      <c r="G18" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>304</v>
+      </c>
+      <c r="G19" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20" s="3">
+        <v>44844</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" si="0"/>
+        <v>44846</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>305</v>
+      </c>
+      <c r="G20" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21" t="s">
+        <v>297</v>
+      </c>
+      <c r="G21" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22" s="3">
+        <v>45269</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" si="0"/>
+        <v>45271</v>
+      </c>
+      <c r="E22">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
+        <v>306</v>
+      </c>
+      <c r="G22" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C23" s="3">
+        <v>45269</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="0"/>
+        <v>45271</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>307</v>
+      </c>
+      <c r="G23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E24">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>294</v>
+      </c>
+      <c r="G24" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>98</v>
+      <c r="C25" s="3">
+        <v>45205</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="0"/>
+        <v>45207</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>307</v>
+      </c>
+      <c r="G25" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C26" s="3">
+        <v>44844</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" si="0"/>
+        <v>44846</v>
+      </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>310</v>
+      </c>
+      <c r="G26" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -2380,28 +3334,28 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982953CC-907D-497F-96C1-26A39BB8805C}">
   <sheetPr codeName="Trang_tính1"/>
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35:C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.25" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="9" max="9" width="18.625" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="D1" s="1">
         <v>1</v>
@@ -2414,7 +3368,7 @@
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I1" s="1">
         <v>2251172491</v>
@@ -2429,18 +3383,18 @@
         <v>5</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -2453,7 +3407,7 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I2" s="1">
         <v>2251172491</v>
@@ -2468,18 +3422,18 @@
         <v>0</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="D3" s="1">
         <v>3</v>
@@ -2492,33 +3446,33 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I3" s="1">
         <v>2251172491</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="L3" s="1">
         <v>8</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -2531,33 +3485,33 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I4" s="1">
         <v>2251172491</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
@@ -2570,33 +3524,33 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I5" s="1">
         <v>2251172491</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="M5" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -2609,7 +3563,7 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I6" s="1">
         <v>2251172491</v>
@@ -2621,21 +3575,21 @@
         <v>6</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
@@ -2648,33 +3602,33 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I7" s="1">
         <v>2251172491</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="M7" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="D8" s="1">
         <v>3</v>
@@ -2687,7 +3641,7 @@
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I8" s="1">
         <v>2251172491</v>
@@ -2699,21 +3653,21 @@
         <v>5</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="D9" s="1">
         <v>3</v>
@@ -2726,7 +3680,7 @@
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" s="1">
         <v>2251172491</v>
@@ -2735,24 +3689,24 @@
         <v>8</v>
       </c>
       <c r="K9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L9" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="M9" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="D10" s="1">
         <v>3</v>
@@ -2765,7 +3719,7 @@
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I10" s="1">
         <v>2251172491</v>
@@ -2777,21 +3731,21 @@
         <v>7</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
@@ -2804,33 +3758,33 @@
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I11" s="1">
         <v>2251172491</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K11" s="1">
         <v>7</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="D12" s="1">
         <v>3</v>
@@ -2843,33 +3797,33 @@
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I12" s="1">
         <v>2251172491</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="D13" s="1">
         <v>3</v>
@@ -2882,7 +3836,7 @@
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I13" s="1">
         <v>2251172491</v>
@@ -2891,24 +3845,24 @@
         <v>10</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="D14" s="1">
         <v>3</v>
@@ -2921,33 +3875,33 @@
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I14" s="1">
         <v>2251172491</v>
       </c>
       <c r="J14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="L14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="D15" s="1">
         <v>3</v>
@@ -2960,33 +3914,33 @@
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I15" s="1">
         <v>2251172491</v>
       </c>
       <c r="J15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="M15" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -2999,7 +3953,7 @@
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I16" s="1">
         <v>2251172491</v>
@@ -3014,18 +3968,18 @@
         <v>9</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="D17" s="1">
         <v>3</v>
@@ -3038,33 +3992,33 @@
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I17" s="1">
         <v>2251172491</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="D18" s="1">
         <v>3</v>
@@ -3077,33 +4031,33 @@
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I18" s="1">
         <v>2251172491</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K18" s="1">
         <v>0</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="D19" s="1">
         <v>6</v>
@@ -3116,7 +4070,7 @@
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I19" s="1">
         <v>2251172491</v>
@@ -3124,21 +4078,21 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="D20" s="1">
         <v>3</v>
@@ -3151,33 +4105,33 @@
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I20" s="1">
         <v>2251172491</v>
       </c>
       <c r="J20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L20" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="M20" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="D21" s="1">
         <v>3</v>
@@ -3190,33 +4144,33 @@
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I21" s="1">
         <v>2251172491</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="D22" s="1">
         <v>3</v>
@@ -3229,33 +4183,33 @@
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I22" s="1">
         <v>2251172491</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K22" s="1">
         <v>8</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
@@ -3268,7 +4222,7 @@
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I23" s="1">
         <v>2251172491</v>
@@ -3280,21 +4234,21 @@
         <v>7</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>24</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="D24" s="1">
         <v>3</v>
@@ -3307,23 +4261,33 @@
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I24" s="1">
         <v>2251172491</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K24" s="1">
         <v>2</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3343,9 +4307,9 @@
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>228600</xdr:colOff>
                 <xdr:row>1</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:rowOff>60960</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -3368,9 +4332,9 @@
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>228600</xdr:colOff>
                 <xdr:row>1</xdr:row>
-                <xdr:rowOff>257175</xdr:rowOff>
+                <xdr:rowOff>243840</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -3393,9 +4357,9 @@
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>228600</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:rowOff>60960</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -3418,9 +4382,9 @@
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>228600</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:rowOff>60960</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -3443,9 +4407,9 @@
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>228600</xdr:colOff>
                 <xdr:row>5</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:rowOff>60960</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -3468,9 +4432,9 @@
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>228600</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:rowOff>60960</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -3493,9 +4457,9 @@
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>228600</xdr:colOff>
                 <xdr:row>7</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:rowOff>60960</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -3518,9 +4482,9 @@
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>228600</xdr:colOff>
                 <xdr:row>8</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:rowOff>60960</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -3543,9 +4507,9 @@
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>228600</xdr:colOff>
                 <xdr:row>9</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:rowOff>60960</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -3568,9 +4532,9 @@
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>228600</xdr:colOff>
                 <xdr:row>9</xdr:row>
-                <xdr:rowOff>257175</xdr:rowOff>
+                <xdr:rowOff>243840</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -3593,9 +4557,9 @@
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>257175</xdr:rowOff>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -3618,9 +4582,9 @@
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>228600</xdr:colOff>
                 <xdr:row>12</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:rowOff>60960</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -3643,9 +4607,9 @@
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>228600</xdr:colOff>
                 <xdr:row>13</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:rowOff>60960</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -3668,9 +4632,9 @@
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>228600</xdr:colOff>
                 <xdr:row>13</xdr:row>
-                <xdr:rowOff>257175</xdr:rowOff>
+                <xdr:rowOff>243840</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -3693,9 +4657,9 @@
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>228600</xdr:colOff>
                 <xdr:row>15</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:rowOff>60960</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -3718,9 +4682,9 @@
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>228600</xdr:colOff>
                 <xdr:row>16</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:rowOff>60960</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -3743,9 +4707,9 @@
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>228600</xdr:colOff>
                 <xdr:row>17</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:rowOff>60960</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -3768,9 +4732,9 @@
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>228600</xdr:colOff>
                 <xdr:row>17</xdr:row>
-                <xdr:rowOff>257175</xdr:rowOff>
+                <xdr:rowOff>243840</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -3793,9 +4757,9 @@
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>228600</xdr:colOff>
                 <xdr:row>19</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:rowOff>60960</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -3818,9 +4782,9 @@
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>228600</xdr:colOff>
                 <xdr:row>20</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:rowOff>60960</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -3843,9 +4807,9 @@
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>228600</xdr:colOff>
                 <xdr:row>21</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:rowOff>60960</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -3868,9 +4832,9 @@
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>228600</xdr:colOff>
                 <xdr:row>22</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:rowOff>60960</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -3893,9 +4857,9 @@
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>228600</xdr:colOff>
                 <xdr:row>23</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:rowOff>60960</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -3918,9 +4882,9 @@
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:colOff>228600</xdr:colOff>
                 <xdr:row>24</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:rowOff>60960</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -3936,61 +4900,672 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB644288-C5A7-4418-B163-6911149B6A64}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="94" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.77734375" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
         <v>100</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>101</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>102</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>103</v>
       </c>
-      <c r="F1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G1" t="s">
-        <v>105</v>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2" s="3">
+        <v>25903</v>
+      </c>
+      <c r="D2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F2">
+        <v>987654321</v>
+      </c>
+      <c r="G2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3" s="3">
+        <v>21979</v>
+      </c>
+      <c r="D3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F3">
+        <v>987654321</v>
+      </c>
+      <c r="G3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4">
+        <v>987654321</v>
+      </c>
+      <c r="G4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" t="s">
+        <v>175</v>
+      </c>
+      <c r="F5">
+        <v>987654321</v>
+      </c>
+      <c r="G5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" t="s">
+        <v>180</v>
+      </c>
+      <c r="F6">
+        <v>987654321</v>
+      </c>
+      <c r="G6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F7">
+        <v>987654321</v>
+      </c>
+      <c r="G7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="D8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" t="s">
+        <v>200</v>
+      </c>
+      <c r="F8">
+        <v>987654321</v>
+      </c>
+      <c r="G8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C9" s="3">
+        <v>25486</v>
+      </c>
+      <c r="D9" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F9">
+        <v>987654321</v>
+      </c>
+      <c r="G9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E10" t="s">
+        <v>250</v>
+      </c>
+      <c r="F10">
+        <v>987654321</v>
+      </c>
+      <c r="G10" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>210</v>
+      </c>
+      <c r="B11" t="s">
+        <v>237</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D11" t="s">
+        <v>144</v>
+      </c>
+      <c r="E11" t="s">
+        <v>251</v>
+      </c>
+      <c r="F11">
+        <v>987654321</v>
+      </c>
+      <c r="G11" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>211</v>
+      </c>
+      <c r="B12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C12" s="3">
+        <v>32458</v>
+      </c>
+      <c r="D12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12" t="s">
+        <v>252</v>
+      </c>
+      <c r="F12">
+        <v>987654321</v>
+      </c>
+      <c r="G12" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>212</v>
+      </c>
+      <c r="B13" t="s">
+        <v>239</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E13" t="s">
+        <v>253</v>
+      </c>
+      <c r="F13">
+        <v>987654321</v>
+      </c>
+      <c r="G13" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>213</v>
+      </c>
+      <c r="B14" t="s">
+        <v>240</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="D14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E14" t="s">
+        <v>254</v>
+      </c>
+      <c r="F14">
+        <v>987654321</v>
+      </c>
+      <c r="G14" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>214</v>
+      </c>
+      <c r="B15" t="s">
+        <v>241</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E15" t="s">
+        <v>196</v>
+      </c>
+      <c r="F15">
+        <v>987654321</v>
+      </c>
+      <c r="G15" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>215</v>
+      </c>
+      <c r="B16" t="s">
+        <v>242</v>
+      </c>
+      <c r="C16" s="3">
+        <v>28466</v>
+      </c>
+      <c r="D16" t="s">
+        <v>147</v>
+      </c>
+      <c r="E16" t="s">
+        <v>255</v>
+      </c>
+      <c r="F16">
+        <v>987654321</v>
+      </c>
+      <c r="G16" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>216</v>
+      </c>
+      <c r="B17" t="s">
+        <v>244</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="D17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E17" t="s">
+        <v>256</v>
+      </c>
+      <c r="F17">
+        <v>987654321</v>
+      </c>
+      <c r="G17" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>217</v>
+      </c>
+      <c r="B18" t="s">
+        <v>245</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D18" t="s">
+        <v>147</v>
+      </c>
+      <c r="E18" t="s">
+        <v>199</v>
+      </c>
+      <c r="F18">
+        <v>987654321</v>
+      </c>
+      <c r="G18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>218</v>
+      </c>
+      <c r="B19" t="s">
+        <v>231</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D19" t="s">
+        <v>147</v>
+      </c>
+      <c r="E19" t="s">
+        <v>257</v>
+      </c>
+      <c r="F19">
+        <v>987654321</v>
+      </c>
+      <c r="G19" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>219</v>
+      </c>
+      <c r="B20" t="s">
+        <v>246</v>
+      </c>
+      <c r="C20" s="3">
+        <v>30590</v>
+      </c>
+      <c r="D20" t="s">
+        <v>147</v>
+      </c>
+      <c r="E20" t="s">
+        <v>258</v>
+      </c>
+      <c r="F20">
+        <v>987654321</v>
+      </c>
+      <c r="G20" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>220</v>
+      </c>
+      <c r="B21" t="s">
+        <v>248</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D21" t="s">
+        <v>144</v>
+      </c>
+      <c r="E21" t="s">
+        <v>259</v>
+      </c>
+      <c r="F21">
+        <v>987654321</v>
+      </c>
+      <c r="G21" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>221</v>
+      </c>
+      <c r="B22" t="s">
+        <v>249</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D22" t="s">
+        <v>144</v>
+      </c>
+      <c r="E22" t="s">
+        <v>260</v>
+      </c>
+      <c r="F22">
+        <v>987654321</v>
+      </c>
+      <c r="G22" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>222</v>
+      </c>
+      <c r="B23" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D23" t="s">
+        <v>144</v>
+      </c>
+      <c r="E23" t="s">
+        <v>261</v>
+      </c>
+      <c r="F23">
+        <v>987654321</v>
+      </c>
+      <c r="G23" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>223</v>
+      </c>
+      <c r="B24" t="s">
+        <v>265</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D24" t="s">
+        <v>144</v>
+      </c>
+      <c r="E24" t="s">
+        <v>155</v>
+      </c>
+      <c r="F24">
+        <v>987654321</v>
+      </c>
+      <c r="G24" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>224</v>
+      </c>
+      <c r="B25" t="s">
+        <v>266</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="D25" t="s">
+        <v>147</v>
+      </c>
+      <c r="E25" t="s">
+        <v>262</v>
+      </c>
+      <c r="F25">
+        <v>987654321</v>
+      </c>
+      <c r="G25" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>225</v>
+      </c>
+      <c r="B26" t="s">
+        <v>267</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="D26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E26" t="s">
+        <v>263</v>
+      </c>
+      <c r="F26">
+        <v>987654321</v>
+      </c>
+      <c r="G26" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>226</v>
+      </c>
+      <c r="B27" t="s">
+        <v>268</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D27" t="s">
+        <v>147</v>
+      </c>
+      <c r="E27" t="s">
+        <v>264</v>
+      </c>
+      <c r="F27">
+        <v>987654321</v>
+      </c>
+      <c r="G27" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{551ACEE3-73EF-4115-BBA9-F8FA495F16EC}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView zoomScale="83" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" style="4" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>106</v>
-      </c>
-      <c r="B1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C1" t="s">
-        <v>108</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -4001,8 +5576,606 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2251152410</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E2">
+        <f>SUM(D2,1)</f>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2251152345</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E26" si="0">SUM(D3,1)</f>
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3">
+        <v>44937</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2251161900</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4" s="3">
+        <v>44996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2251162000</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>45149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2251162100</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6" s="3">
+        <v>45271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2251162200</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2251142400</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>7.6</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>8.6</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2251142450</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E9">
+        <f>SUM(D9,1)</f>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9" s="3">
+        <v>45081</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2251132178</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>8.5</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>9.5</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2251132213</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>4.7</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>5.7</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2251172210</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>8.1</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>9.1</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2251172314</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2251172145</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2251172156</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>5.5</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+      <c r="F15">
+        <v>6</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2251172765</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2251142987</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>6.8</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>7.8</v>
+      </c>
+      <c r="F17">
+        <v>6</v>
+      </c>
+      <c r="G17" s="3">
+        <v>44937</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2251151965</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>7.9</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>8.9</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" s="3">
+        <v>44996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2251162654</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>3.9</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" s="3">
+        <v>45149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2251132345</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>4.5</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3">
+        <v>45271</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2251132567</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>9.1</v>
+      </c>
+      <c r="E21">
+        <v>9</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2251132854</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>8</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>2251152813</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>7</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F23">
+        <v>6</v>
+      </c>
+      <c r="G23" s="3">
+        <v>45081</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2251151842</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>6.5</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>2251142065</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>5.3</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>6.3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>2251141523</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>5.9</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -4012,34 +6185,459 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB6EF398-9BFC-43CC-A7CB-A4F83E819CCE}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.625" customWidth="1"/>
-    <col min="3" max="3" width="12.125" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="11.75" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17" style="4" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C1" t="s">
-        <v>109</v>
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3">
+        <v>44844</v>
+      </c>
+      <c r="D2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3">
+        <v>44844</v>
+      </c>
+      <c r="D3" t="s">
+        <v>293</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3">
+        <v>45269</v>
+      </c>
+      <c r="D4" t="s">
+        <v>295</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3">
+        <v>45269</v>
+      </c>
+      <c r="D5" t="s">
+        <v>296</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3">
+        <v>44840</v>
+      </c>
+      <c r="D6" t="s">
+        <v>295</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="3">
+        <v>44840</v>
+      </c>
+      <c r="D7" t="s">
+        <v>302</v>
+      </c>
+      <c r="E7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44904</v>
+      </c>
+      <c r="D8" t="s">
+        <v>297</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="D9" t="s">
+        <v>297</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="3">
+        <v>45269</v>
+      </c>
+      <c r="D10" t="s">
+        <v>295</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>210</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="3">
+        <v>44844</v>
+      </c>
+      <c r="D11" t="s">
+        <v>298</v>
+      </c>
+      <c r="E11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>211</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="3">
+        <v>45209</v>
+      </c>
+      <c r="D12" t="s">
+        <v>299</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>212</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="3">
+        <v>45205</v>
+      </c>
+      <c r="D13" t="s">
+        <v>300</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>213</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="3">
+        <v>45205</v>
+      </c>
+      <c r="D14" t="s">
+        <v>300</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>214</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="D15" t="s">
+        <v>296</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>215</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="3">
+        <v>45205</v>
+      </c>
+      <c r="D16" t="s">
+        <v>300</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>216</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="D17" t="s">
+        <v>301</v>
+      </c>
+      <c r="E17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>217</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="3">
+        <v>45205</v>
+      </c>
+      <c r="D18" t="s">
+        <v>303</v>
+      </c>
+      <c r="E18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>218</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D19" t="s">
+        <v>304</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>219</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="3">
+        <v>44844</v>
+      </c>
+      <c r="D20" t="s">
+        <v>305</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>220</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D21" t="s">
+        <v>297</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>221</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="3">
+        <v>45269</v>
+      </c>
+      <c r="D22" t="s">
+        <v>306</v>
+      </c>
+      <c r="E22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>222</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="3">
+        <v>45269</v>
+      </c>
+      <c r="D23" t="s">
+        <v>307</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>223</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="D24" t="s">
+        <v>294</v>
+      </c>
+      <c r="E24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>224</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="3">
+        <v>45205</v>
+      </c>
+      <c r="D25" t="s">
+        <v>307</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>225</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C26" s="3">
+        <v>44844</v>
+      </c>
+      <c r="D26" t="s">
+        <v>310</v>
+      </c>
+      <c r="E26">
         <v>10</v>
       </c>
     </row>
@@ -4050,243 +6648,458 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3865EC66-606D-49A9-8C94-908A6D1C15A6}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="2" max="3" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>113</v>
       </c>
-      <c r="E1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>117</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>118</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>119</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>121</v>
       </c>
-      <c r="B3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" t="s">
         <v>122</v>
       </c>
-      <c r="B4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>126</v>
       </c>
-      <c r="D4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>125</v>
-      </c>
-      <c r="B7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>127</v>
       </c>
-      <c r="B8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>128</v>
       </c>
-      <c r="B9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E13" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>129</v>
       </c>
-      <c r="B10" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" t="s">
+        <v>116</v>
+      </c>
+      <c r="E14" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>130</v>
       </c>
-      <c r="B11" t="s">
-        <v>118</v>
-      </c>
-      <c r="C11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D15" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>131</v>
       </c>
-      <c r="B12" t="s">
-        <v>118</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" t="s">
+        <v>116</v>
+      </c>
+      <c r="E18" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" t="s">
+        <v>116</v>
+      </c>
+      <c r="E19" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>136</v>
       </c>
-      <c r="D12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>132</v>
-      </c>
-      <c r="B13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C13" t="s">
-        <v>136</v>
-      </c>
-      <c r="D13" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>133</v>
-      </c>
-      <c r="B14" t="s">
-        <v>118</v>
-      </c>
-      <c r="C14" t="s">
-        <v>136</v>
-      </c>
-      <c r="D14" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>134</v>
-      </c>
-      <c r="B15" t="s">
-        <v>118</v>
-      </c>
-      <c r="C15" t="s">
-        <v>136</v>
-      </c>
-      <c r="D15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>135</v>
-      </c>
-      <c r="B16" t="s">
-        <v>118</v>
-      </c>
-      <c r="C16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D16" t="s">
-        <v>120</v>
+      <c r="B20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" t="s">
+        <v>116</v>
+      </c>
+      <c r="E21" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>140</v>
+      </c>
+      <c r="B24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>141</v>
+      </c>
+      <c r="B25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" t="s">
+        <v>116</v>
+      </c>
+      <c r="E25" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>142</v>
+      </c>
+      <c r="B26" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -4303,281 +7116,281 @@
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
         <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
         <v>37</v>
       </c>
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
       <c r="C7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
         <v>40</v>
-      </c>
-      <c r="B8" t="s">
-        <v>41</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
         <v>45</v>
-      </c>
-      <c r="B9" t="s">
-        <v>46</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
         <v>48</v>
-      </c>
-      <c r="B10" t="s">
-        <v>49</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
         <v>52</v>
-      </c>
-      <c r="B11" t="s">
-        <v>53</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
         <v>55</v>
-      </c>
-      <c r="B12" t="s">
-        <v>56</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
         <v>58</v>
-      </c>
-      <c r="B13" t="s">
-        <v>59</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" t="s">
         <v>62</v>
-      </c>
-      <c r="B14" t="s">
-        <v>63</v>
       </c>
       <c r="C14">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" t="s">
         <v>65</v>
-      </c>
-      <c r="B15" t="s">
-        <v>66</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" t="s">
         <v>69</v>
-      </c>
-      <c r="B16" t="s">
-        <v>70</v>
       </c>
       <c r="C16">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" t="s">
         <v>73</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>74</v>
       </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
         <v>75</v>
-      </c>
-      <c r="B18" t="s">
-        <v>76</v>
       </c>
       <c r="C18">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" t="s">
         <v>78</v>
-      </c>
-      <c r="B19" t="s">
-        <v>79</v>
       </c>
       <c r="C19">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" t="s">
         <v>82</v>
-      </c>
-      <c r="B20" t="s">
-        <v>83</v>
       </c>
       <c r="C20">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" t="s">
         <v>85</v>
-      </c>
-      <c r="B21" t="s">
-        <v>86</v>
       </c>
       <c r="C21">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" t="s">
         <v>89</v>
-      </c>
-      <c r="B22" t="s">
-        <v>90</v>
       </c>
       <c r="C22">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" t="s">
         <v>92</v>
-      </c>
-      <c r="B23" t="s">
-        <v>93</v>
       </c>
       <c r="C23">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" t="s">
         <v>95</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>96</v>
       </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
         <v>97</v>
-      </c>
-      <c r="B25" t="s">
-        <v>98</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -4590,38 +7403,622 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{250D15DE-FAC0-4023-8A0F-5ADAD22EF218}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" t="s">
         <v>102</v>
       </c>
-      <c r="E1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1" t="s">
-        <v>104</v>
-      </c>
       <c r="G1" t="s">
-        <v>111</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2251152410</v>
+      </c>
+      <c r="B2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="3">
+        <v>38333</v>
+      </c>
+      <c r="D2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F2">
+        <v>123456789</v>
+      </c>
+      <c r="G2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2251152345</v>
+      </c>
+      <c r="B3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="3">
+        <v>38050</v>
+      </c>
+      <c r="D3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3">
+        <v>123456789</v>
+      </c>
+      <c r="G3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2251161900</v>
+      </c>
+      <c r="B4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="3">
+        <v>38113</v>
+      </c>
+      <c r="D4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F4">
+        <v>123456789</v>
+      </c>
+      <c r="G4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2251162000</v>
+      </c>
+      <c r="B5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="3">
+        <v>38272</v>
+      </c>
+      <c r="D5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" t="s">
+        <v>154</v>
+      </c>
+      <c r="F5">
+        <v>123456789</v>
+      </c>
+      <c r="G5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2251162100</v>
+      </c>
+      <c r="B6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="3">
+        <v>38293</v>
+      </c>
+      <c r="D6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" t="s">
+        <v>155</v>
+      </c>
+      <c r="F6">
+        <v>123456789</v>
+      </c>
+      <c r="G6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2251162200</v>
+      </c>
+      <c r="B7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="3">
+        <v>38322</v>
+      </c>
+      <c r="D7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F7">
+        <v>123456789</v>
+      </c>
+      <c r="G7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2251142400</v>
+      </c>
+      <c r="B8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" t="s">
+        <v>160</v>
+      </c>
+      <c r="F8">
+        <v>123456789</v>
+      </c>
+      <c r="G8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2251142450</v>
+      </c>
+      <c r="B9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F9">
+        <v>123456789</v>
+      </c>
+      <c r="G9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2251132178</v>
+      </c>
+      <c r="B10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F10">
+        <v>123456789</v>
+      </c>
+      <c r="G10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2251132213</v>
+      </c>
+      <c r="B11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" s="3">
+        <v>38261</v>
+      </c>
+      <c r="D11" t="s">
+        <v>144</v>
+      </c>
+      <c r="E11" t="s">
+        <v>165</v>
+      </c>
+      <c r="F11">
+        <v>123456789</v>
+      </c>
+      <c r="G11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2251172210</v>
+      </c>
+      <c r="B12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" s="3">
+        <v>37987</v>
+      </c>
+      <c r="D12" t="s">
+        <v>147</v>
+      </c>
+      <c r="E12" t="s">
+        <v>174</v>
+      </c>
+      <c r="F12">
+        <v>123456789</v>
+      </c>
+      <c r="G12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2251172314</v>
+      </c>
+      <c r="B13" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E13" t="s">
+        <v>175</v>
+      </c>
+      <c r="F13">
+        <v>123456789</v>
+      </c>
+      <c r="G13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2251172145</v>
+      </c>
+      <c r="B14" t="s">
+        <v>169</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E14" t="s">
+        <v>145</v>
+      </c>
+      <c r="F14">
+        <v>123456789</v>
+      </c>
+      <c r="G14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2251172156</v>
+      </c>
+      <c r="B15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="3">
+        <v>38235</v>
+      </c>
+      <c r="D15" t="s">
+        <v>147</v>
+      </c>
+      <c r="E15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F15">
+        <v>123456789</v>
+      </c>
+      <c r="G15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2251172765</v>
+      </c>
+      <c r="B16" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D16" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16" t="s">
+        <v>155</v>
+      </c>
+      <c r="F16">
+        <v>123456789</v>
+      </c>
+      <c r="G16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2251142987</v>
+      </c>
+      <c r="B17" t="s">
+        <v>176</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D17" t="s">
+        <v>147</v>
+      </c>
+      <c r="E17" t="s">
+        <v>165</v>
+      </c>
+      <c r="F17">
+        <v>123456789</v>
+      </c>
+      <c r="G17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2251151965</v>
+      </c>
+      <c r="B18" t="s">
+        <v>178</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D18" t="s">
+        <v>147</v>
+      </c>
+      <c r="E18" t="s">
+        <v>180</v>
+      </c>
+      <c r="F18">
+        <v>123456789</v>
+      </c>
+      <c r="G18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2251162654</v>
+      </c>
+      <c r="B19" t="s">
+        <v>181</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D19" t="s">
+        <v>144</v>
+      </c>
+      <c r="E19" t="s">
+        <v>197</v>
+      </c>
+      <c r="F19">
+        <v>123456789</v>
+      </c>
+      <c r="G19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2251132345</v>
+      </c>
+      <c r="B20" t="s">
+        <v>184</v>
+      </c>
+      <c r="C20" s="3">
+        <v>38303</v>
+      </c>
+      <c r="D20" t="s">
+        <v>144</v>
+      </c>
+      <c r="E20" t="s">
+        <v>198</v>
+      </c>
+      <c r="F20">
+        <v>123456789</v>
+      </c>
+      <c r="G20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2251132567</v>
+      </c>
+      <c r="B21" t="s">
+        <v>183</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D21" t="s">
+        <v>147</v>
+      </c>
+      <c r="E21" t="s">
+        <v>199</v>
+      </c>
+      <c r="F21">
+        <v>123456789</v>
+      </c>
+      <c r="G21" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2251132854</v>
+      </c>
+      <c r="B22" t="s">
+        <v>185</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D22" t="s">
+        <v>144</v>
+      </c>
+      <c r="E22" t="s">
+        <v>145</v>
+      </c>
+      <c r="F22">
+        <v>123456789</v>
+      </c>
+      <c r="G22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>2251152813</v>
+      </c>
+      <c r="B23" t="s">
+        <v>188</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D23" t="s">
+        <v>147</v>
+      </c>
+      <c r="E23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F23">
+        <v>123456789</v>
+      </c>
+      <c r="G23" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2251151842</v>
+      </c>
+      <c r="B24" t="s">
+        <v>189</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D24" t="s">
+        <v>147</v>
+      </c>
+      <c r="E24" t="s">
+        <v>180</v>
+      </c>
+      <c r="F24">
+        <v>123456789</v>
+      </c>
+      <c r="G24" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>2251142065</v>
+      </c>
+      <c r="B25" t="s">
+        <v>190</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D25" t="s">
+        <v>144</v>
+      </c>
+      <c r="E25" t="s">
+        <v>175</v>
+      </c>
+      <c r="F25">
+        <v>123456789</v>
+      </c>
+      <c r="G25" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>2251141523</v>
+      </c>
+      <c r="B26" t="s">
+        <v>191</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F26">
+        <v>123456789</v>
+      </c>
+      <c r="G26" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Database.xlsx
+++ b/Database.xlsx
@@ -8,21 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thanglele-my.sharepoint.com/personal/thanglele_thanglele_onmicrosoft_com/Documents/DATA-LEARNING/C#/SchoolEdu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{F4BF77A4-9BFA-4DF1-BEDE-FFD0D5CCF1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBD1230B-FC78-42EE-A9AF-57C2A3F2E1A5}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="13_ncr:1_{F4BF77A4-9BFA-4DF1-BEDE-FFD0D5CCF1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CBA981B-AE1B-44E8-A1C3-A3AB46A636D8}"/>
   <bookViews>
-    <workbookView xWindow="3885" yWindow="2100" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{FB706267-7A05-4D03-A38D-A1D6E09A9BBD}"/>
+    <workbookView xWindow="6960" yWindow="2190" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{FB706267-7A05-4D03-A38D-A1D6E09A9BBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Tinchi" sheetId="4" r:id="rId1"/>
-    <sheet name="GIAOVIEN" sheetId="8" r:id="rId2"/>
-    <sheet name="DIEMSV" sheetId="9" r:id="rId3"/>
-    <sheet name="GVMH" sheetId="10" r:id="rId4"/>
-    <sheet name="LOP" sheetId="11" r:id="rId5"/>
-    <sheet name="MONHOC" sheetId="12" r:id="rId6"/>
-    <sheet name="SINHVIEN" sheetId="13" r:id="rId7"/>
+    <sheet name="SVMH" sheetId="14" r:id="rId2"/>
+    <sheet name="GIAOVIEN" sheetId="8" r:id="rId3"/>
+    <sheet name="DIEMSV" sheetId="9" r:id="rId4"/>
+    <sheet name="GVMH" sheetId="10" r:id="rId5"/>
+    <sheet name="LOP" sheetId="11" r:id="rId6"/>
+    <sheet name="MONHOC" sheetId="12" r:id="rId7"/>
+    <sheet name="SINHVIEN" sheetId="13" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">GVMH!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">DIEMSV!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">GVMH!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">MONHOC!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">SINHVIEN!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SVMH!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tinchi!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="304">
   <si>
     <t>NgaySinh</t>
   </si>
@@ -863,36 +869,6 @@
     <t>Sân bóng rổ</t>
   </si>
   <si>
-    <t>25/12/2022</t>
-  </si>
-  <si>
-    <t>17/1/2023</t>
-  </si>
-  <si>
-    <t>20/1/2023</t>
-  </si>
-  <si>
-    <t>13/4/2023</t>
-  </si>
-  <si>
-    <t>19/6/2023</t>
-  </si>
-  <si>
-    <t>21/6/2023</t>
-  </si>
-  <si>
-    <t>23/8/2023</t>
-  </si>
-  <si>
-    <t>26/8/2023</t>
-  </si>
-  <si>
-    <t>29/8/2023</t>
-  </si>
-  <si>
-    <t>31/8/2023</t>
-  </si>
-  <si>
     <t>2022-10-10</t>
   </si>
   <si>
@@ -918,6 +894,75 @@
   </si>
   <si>
     <t>Ngaybd</t>
+  </si>
+  <si>
+    <t>Ngaybatdau</t>
+  </si>
+  <si>
+    <t>Ngayketthuc</t>
+  </si>
+  <si>
+    <t>2022-10-12</t>
+  </si>
+  <si>
+    <t>2022-10-8</t>
+  </si>
+  <si>
+    <t>2023-10-8</t>
+  </si>
+  <si>
+    <t>2023-12-17</t>
+  </si>
+  <si>
+    <t>2023-10-12</t>
+  </si>
+  <si>
+    <t>2023-12-11</t>
+  </si>
+  <si>
+    <t>2022-12-11</t>
+  </si>
+  <si>
+    <t>2022-12-25</t>
+  </si>
+  <si>
+    <t>2023-1-11</t>
+  </si>
+  <si>
+    <t>2023-3-11</t>
+  </si>
+  <si>
+    <t>2023-8-11</t>
+  </si>
+  <si>
+    <t>2023-1-17</t>
+  </si>
+  <si>
+    <t>2023-1-20</t>
+  </si>
+  <si>
+    <t>2023-6-4</t>
+  </si>
+  <si>
+    <t>2023-4-13</t>
+  </si>
+  <si>
+    <t>2023-6-19</t>
+  </si>
+  <si>
+    <t>2023-6-21</t>
+  </si>
+  <si>
+    <t>2023-8-23</t>
+  </si>
+  <si>
+    <t>2023-8-26</t>
+  </si>
+  <si>
+    <t>2023-8-29</t>
+  </si>
+  <si>
+    <t>2023-8-31</t>
   </si>
 </sst>
 </file>
@@ -1322,7 +1367,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="C2" sqref="C2:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1335,7 +1380,7 @@
     <col min="6" max="6" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1369,7 +1414,7 @@
         <v>44844</v>
       </c>
       <c r="D2" s="3">
-        <f>SUM(C2, 2)</f>
+        <f t="shared" ref="D2:D8" si="0">SUM(C2, 2)</f>
         <v>44846</v>
       </c>
       <c r="E2">
@@ -1393,7 +1438,7 @@
         <v>44844</v>
       </c>
       <c r="D3" s="3">
-        <f t="shared" ref="D3:D26" si="0">SUM(C3, 2)</f>
+        <f t="shared" si="0"/>
         <v>44846</v>
       </c>
       <c r="E3">
@@ -1408,193 +1453,192 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>269</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>270</v>
       </c>
       <c r="C4" s="3">
-        <v>45269</v>
+        <v>44844</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" si="0"/>
-        <v>45271</v>
+        <v>44846</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="G4" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C5" s="3">
-        <v>45269</v>
+        <v>44840</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>45271</v>
+        <v>44842</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="G5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C6" s="3">
-        <v>44840</v>
+        <v>45205</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>44842</v>
+        <v>45207</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G6" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C7" s="3">
-        <v>44840</v>
+        <v>45205</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="0"/>
-        <v>44842</v>
+        <v>45207</v>
       </c>
       <c r="E7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C8" s="3">
-        <v>44904</v>
+        <v>45205</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" si="0"/>
-        <v>44906</v>
+        <v>45207</v>
       </c>
       <c r="E8">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="G8" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>252</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F9" t="s">
         <v>258</v>
       </c>
       <c r="G9" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="3">
-        <v>45269</v>
-      </c>
-      <c r="D10" s="3">
-        <f t="shared" si="0"/>
-        <v>45271</v>
+        <v>39</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>252</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G10" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C11" s="3">
-        <v>44844</v>
+        <v>44840</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="0"/>
-        <v>44846</v>
+        <f t="shared" ref="D11:D16" si="1">SUM(C11, 2)</f>
+        <v>44842</v>
       </c>
       <c r="E11">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G11" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1608,7 +1652,7 @@
         <v>45209</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45211</v>
       </c>
       <c r="E12">
@@ -1623,64 +1667,65 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C13" s="3">
-        <v>45205</v>
+        <v>45269</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="0"/>
-        <v>45207</v>
+        <f t="shared" si="1"/>
+        <v>45271</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="G13" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C14" s="3">
-        <v>45205</v>
+        <v>45269</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" si="0"/>
-        <v>45207</v>
+        <f t="shared" si="1"/>
+        <v>45271</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="G14" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>252</v>
+        <v>19</v>
+      </c>
+      <c r="C15" s="3">
+        <v>45269</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="1"/>
+        <v>45271</v>
       </c>
       <c r="E15">
         <v>10</v>
@@ -1689,39 +1734,39 @@
         <v>257</v>
       </c>
       <c r="G15" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C16" s="3">
-        <v>45205</v>
+        <v>45269</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" si="0"/>
-        <v>45207</v>
+        <f t="shared" si="1"/>
+        <v>45271</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="G16" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>250</v>
@@ -1730,13 +1775,13 @@
         <v>252</v>
       </c>
       <c r="E17">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="G17" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1750,7 +1795,7 @@
         <v>45205</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(C18, 2)</f>
         <v>45207</v>
       </c>
       <c r="E18">
@@ -1788,105 +1833,105 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C20" s="3">
-        <v>44844</v>
+        <v>44904</v>
       </c>
       <c r="D20" s="3">
-        <f t="shared" si="0"/>
-        <v>44846</v>
+        <f>SUM(C20, 2)</f>
+        <v>44906</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="G20" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>252</v>
       </c>
       <c r="E21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F21" t="s">
         <v>258</v>
       </c>
       <c r="G21" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C22" s="3">
-        <v>45269</v>
+        <v>45205</v>
       </c>
       <c r="D22" s="3">
-        <f t="shared" si="0"/>
-        <v>45271</v>
+        <f>SUM(C22, 2)</f>
+        <v>45207</v>
       </c>
       <c r="E22">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G22" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C23" s="3">
         <v>45269</v>
       </c>
       <c r="D23" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(C23, 2)</f>
         <v>45271</v>
       </c>
       <c r="E23">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>250</v>
@@ -1895,73 +1940,545 @@
         <v>252</v>
       </c>
       <c r="E24">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="G24" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="C25" s="3">
-        <v>45205</v>
+        <v>44844</v>
       </c>
       <c r="D25" s="3">
-        <f t="shared" si="0"/>
-        <v>45207</v>
+        <f>SUM(C25, 2)</f>
+        <v>44846</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="G25" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>269</v>
+        <v>48</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>270</v>
+        <v>49</v>
       </c>
       <c r="C26" s="3">
         <v>44844</v>
       </c>
       <c r="D26" s="3">
-        <f t="shared" si="0"/>
+        <f>SUM(C26, 2)</f>
         <v>44846</v>
       </c>
       <c r="E26">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="G26" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1" xr:uid="{BFA5AFDA-7738-41DF-B305-53CBCC31CC6E}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G26">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0A5CF88-399F-4863-AE88-573562B28B92}">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2251152410</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2251152345</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2251141523</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D4" t="s">
+        <v>283</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2251162200</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D5" t="s">
+        <v>284</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2251172765</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>278</v>
+      </c>
+      <c r="D6" t="s">
+        <v>285</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2251172145</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>278</v>
+      </c>
+      <c r="D7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2251172314</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>278</v>
+      </c>
+      <c r="D8" t="s">
+        <v>285</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2251132567</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
+        <v>279</v>
+      </c>
+      <c r="D9" t="s">
+        <v>286</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2251172156</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>277</v>
+      </c>
+      <c r="D10" t="s">
+        <v>286</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2251162100</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>275</v>
+      </c>
+      <c r="D11" t="s">
+        <v>284</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2251172210</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>273</v>
+      </c>
+      <c r="D12" t="s">
+        <v>287</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2251132178</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>274</v>
+      </c>
+      <c r="D13" t="s">
+        <v>288</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2251161900</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>274</v>
+      </c>
+      <c r="D14" t="s">
+        <v>288</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2251162000</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>274</v>
+      </c>
+      <c r="D15" t="s">
+        <v>288</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2251152813</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>274</v>
+      </c>
+      <c r="D16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2251151842</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" t="s">
+        <v>277</v>
+      </c>
+      <c r="D17" t="s">
+        <v>286</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2251151965</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>278</v>
+      </c>
+      <c r="D18" t="s">
+        <v>285</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2251162654</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
+        <v>279</v>
+      </c>
+      <c r="D19" t="s">
+        <v>286</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2251142400</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>276</v>
+      </c>
+      <c r="D20" t="s">
+        <v>289</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2251142450</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>277</v>
+      </c>
+      <c r="D21" t="s">
+        <v>286</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2251142065</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" t="s">
+        <v>278</v>
+      </c>
+      <c r="D22" t="s">
+        <v>285</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2251132854</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" t="s">
+        <v>274</v>
+      </c>
+      <c r="D23" t="s">
+        <v>288</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2251142987</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s">
+        <v>277</v>
+      </c>
+      <c r="D24" t="s">
+        <v>286</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2251132213</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
+        <v>272</v>
+      </c>
+      <c r="D25" t="s">
+        <v>283</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2251132345</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" t="s">
+        <v>272</v>
+      </c>
+      <c r="D26" t="s">
+        <v>283</v>
+      </c>
+      <c r="E26">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E1" xr:uid="{C0A5CF88-399F-4863-AE88-573562B28B92}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E26">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB644288-C5A7-4418-B163-6911149B6A64}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
+    <sheetView zoomScale="94" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
@@ -2601,12 +3118,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{551ACEE3-73EF-4115-BBA9-F8FA495F16EC}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView zoomScale="83" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2621,7 +3138,7 @@
         <v>65</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="C1" t="s">
         <v>67</v>
@@ -2653,14 +3170,14 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="E2">
-        <f>SUM(D2,1)</f>
+        <f t="shared" ref="E2:E7" si="0">SUM(D2,1)</f>
         <v>9.6999999999999993</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -2677,206 +3194,204 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E26" si="0">SUM(D3,1)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="F3">
         <v>3</v>
       </c>
-      <c r="G3" s="3">
-        <v>44937</v>
+      <c r="G3" s="3" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2251161900</v>
+        <v>2251141523</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>269</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>5.9</v>
       </c>
       <c r="F4">
         <v>4</v>
       </c>
-      <c r="G4" s="3">
-        <v>44996</v>
+      <c r="G4" s="4" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>2251162000</v>
+        <v>2251162200</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3">
-        <v>45149</v>
+        <v>4</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>2251162100</v>
+        <v>2251172765</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F6">
         <v>2</v>
       </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6" s="3">
-        <v>45271</v>
+      <c r="G6" s="4" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>2251162200</v>
+        <v>2251172145</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>2251142400</v>
+        <v>2251172314</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>7.6</v>
+        <v>10</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
-        <v>8.6</v>
+        <v>10</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>2251142450</v>
+        <v>2251132567</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>8.1999999999999993</v>
+        <v>9.1</v>
       </c>
       <c r="E9">
-        <f>SUM(D9,1)</f>
-        <v>9.1999999999999993</v>
+        <v>9</v>
       </c>
       <c r="F9">
-        <v>3</v>
-      </c>
-      <c r="G9" s="3">
-        <v>45081</v>
+        <v>4</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>2251132178</v>
+        <v>2251172156</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
-        <v>9.5</v>
+        <f t="shared" ref="E10:E26" si="1">SUM(D10,1)</f>
+        <v>6.5</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>2251132213</v>
+        <v>2251162100</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>4.7</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
-        <v>5.7</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>4</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>276</v>
+        <v>3</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -2893,133 +3408,134 @@
         <v>8.1</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.1</v>
       </c>
       <c r="F12">
         <v>4</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>2251172314</v>
+        <v>2251132178</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="E13">
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>9.5</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>2251172145</v>
+        <v>2251161900</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F14">
         <v>4</v>
       </c>
-      <c r="F14">
-        <v>3</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>279</v>
+      <c r="G14" s="3" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>2251172156</v>
+        <v>2251162000</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
-        <v>6.5</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>6</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>280</v>
+        <v>1</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>2251172765</v>
+        <v>2251152813</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F16">
         <v>6</v>
       </c>
-      <c r="E16">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>281</v>
+      <c r="G16" s="3" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>2251142987</v>
+        <v>2251151842</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
-        <v>7.8</v>
+        <f t="shared" si="1"/>
+        <v>7.5</v>
       </c>
       <c r="F17">
-        <v>6</v>
-      </c>
-      <c r="G17" s="3">
-        <v>44937</v>
+        <v>2</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -3036,14 +3552,14 @@
         <v>7.9</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.9</v>
       </c>
       <c r="F18">
         <v>2</v>
       </c>
-      <c r="G18" s="3">
-        <v>44996</v>
+      <c r="G18" s="3" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -3060,189 +3576,195 @@
         <v>3.9</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.9000000000000004</v>
       </c>
       <c r="F19">
         <v>2</v>
       </c>
-      <c r="G19" s="3">
-        <v>45149</v>
+      <c r="G19" s="3" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>2251132345</v>
+        <v>2251142400</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20">
-        <v>4.5</v>
+        <v>7.6</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
+        <f t="shared" si="1"/>
+        <v>8.6</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
-      <c r="G20" s="3">
-        <v>45271</v>
+      <c r="G20" s="4" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>2251132567</v>
+        <v>2251142450</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21">
-        <v>9.1</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="E21">
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>9.1999999999999993</v>
       </c>
       <c r="F21">
-        <v>4</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>273</v>
+        <v>3</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>2251132854</v>
+        <v>2251142065</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22">
-        <v>8</v>
+        <v>5.3</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>6.3</v>
       </c>
       <c r="F22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>2251152813</v>
+        <v>2251132854</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="F23">
-        <v>6</v>
-      </c>
-      <c r="G23" s="3">
-        <v>45081</v>
+        <v>3</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>2251151842</v>
+        <v>2251142987</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
-        <v>7.5</v>
+        <f t="shared" si="1"/>
+        <v>7.8</v>
       </c>
       <c r="F24">
-        <v>2</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>275</v>
+        <v>6</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>2251142065</v>
+        <v>2251132213</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25">
-        <v>5.3</v>
+        <v>4.7</v>
       </c>
       <c r="E25">
-        <f t="shared" si="0"/>
-        <v>6.3</v>
+        <f t="shared" si="1"/>
+        <v>5.7</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>280</v>
+        <v>298</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>2251141523</v>
+        <v>2251132345</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>269</v>
+        <v>48</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26">
-        <v>4.9000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
-        <v>5.9</v>
+        <f t="shared" si="1"/>
+        <v>5.5</v>
       </c>
       <c r="F26">
-        <v>4</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>281</v>
+        <v>1</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1" xr:uid="{551ACEE3-73EF-4115-BBA9-F8FA495F16EC}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G26">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB6EF398-9BFC-43CC-A7CB-A4F83E819CCE}">
   <dimension ref="A1:E26"/>
   <sheetViews>
@@ -3267,7 +3789,7 @@
         <v>66</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="D1" t="s">
         <v>11</v>
@@ -3284,7 +3806,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="D2" t="s">
         <v>253</v>
@@ -3301,7 +3823,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="D3" t="s">
         <v>254</v>
@@ -3318,7 +3840,7 @@
         <v>269</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="D4" t="s">
         <v>271</v>
@@ -3335,7 +3857,7 @@
         <v>22</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="D5" t="s">
         <v>263</v>
@@ -3352,7 +3874,7 @@
         <v>40</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="D6" t="s">
         <v>261</v>
@@ -3369,7 +3891,7 @@
         <v>36</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="D7" t="s">
         <v>261</v>
@@ -3386,7 +3908,7 @@
         <v>34</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="D8" t="s">
         <v>261</v>
@@ -3403,7 +3925,7 @@
         <v>50</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="D9" t="s">
         <v>258</v>
@@ -3420,7 +3942,7 @@
         <v>38</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="D10" t="s">
         <v>257</v>
@@ -3437,7 +3959,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="D11" t="s">
         <v>256</v>
@@ -3454,7 +3976,7 @@
         <v>32</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="D12" t="s">
         <v>260</v>
@@ -3471,7 +3993,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="D13" t="s">
         <v>256</v>
@@ -3488,7 +4010,7 @@
         <v>16</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="D14" t="s">
         <v>256</v>
@@ -3505,7 +4027,7 @@
         <v>18</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="D15" t="s">
         <v>257</v>
@@ -3522,7 +4044,7 @@
         <v>54</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="D16" t="s">
         <v>268</v>
@@ -3539,7 +4061,7 @@
         <v>56</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="D17" t="s">
         <v>255</v>
@@ -3556,7 +4078,7 @@
         <v>44</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="D18" t="s">
         <v>264</v>
@@ -3573,7 +4095,7 @@
         <v>46</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="D19" t="s">
         <v>265</v>
@@ -3590,7 +4112,7 @@
         <v>24</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D20" t="s">
         <v>258</v>
@@ -3607,7 +4129,7 @@
         <v>26</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="D21" t="s">
         <v>258</v>
@@ -3624,7 +4146,7 @@
         <v>58</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="D22" t="s">
         <v>268</v>
@@ -3641,7 +4163,7 @@
         <v>52</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="D23" t="s">
         <v>267</v>
@@ -3658,7 +4180,7 @@
         <v>42</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="D24" t="s">
         <v>262</v>
@@ -3675,7 +4197,7 @@
         <v>30</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="D25" t="s">
         <v>259</v>
@@ -3692,7 +4214,7 @@
         <v>48</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="D26" t="s">
         <v>266</v>
@@ -3711,7 +4233,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3865EC66-606D-49A9-8C94-908A6D1C15A6}">
   <dimension ref="A1:E26"/>
   <sheetViews>
@@ -4173,12 +4695,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{057CD0B1-CE2C-42F9-84CC-2B1BEA1CD256}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="C2" sqref="C2:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4221,32 +4743,32 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>269</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>270</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -4254,21 +4776,21 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -4276,10 +4798,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -4287,10 +4809,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -4298,10 +4820,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -4320,10 +4842,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -4331,10 +4853,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -4342,10 +4864,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -4353,10 +4875,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -4364,10 +4886,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -4397,21 +4919,21 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C20">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="C21">
         <v>3</v>
@@ -4419,10 +4941,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C22">
         <v>3</v>
@@ -4430,10 +4952,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C23">
         <v>3</v>
@@ -4441,10 +4963,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -4452,32 +4974,48 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="C25">
         <v>3</v>
       </c>
     </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:C1" xr:uid="{057CD0B1-CE2C-42F9-84CC-2B1BEA1CD256}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C26">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{250D15DE-FAC0-4023-8A0F-5ADAD22EF218}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.75" customWidth="1"/>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5" style="4" customWidth="1"/>
     <col min="5" max="5" width="12.125" customWidth="1"/>
     <col min="6" max="6" width="13.75" customWidth="1"/>
@@ -4509,223 +5047,223 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2251152410</v>
+        <v>2251132178</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2" s="3">
-        <v>38333</v>
+        <v>122</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
       </c>
       <c r="E2" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="F2">
         <v>123456789</v>
       </c>
       <c r="G2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2251152345</v>
+        <v>2251132213</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="C3" s="3">
-        <v>38050</v>
+        <v>38261</v>
       </c>
       <c r="D3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E3" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="F3">
         <v>123456789</v>
       </c>
       <c r="G3" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2251161900</v>
+        <v>2251132345</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="C4" s="3">
-        <v>38113</v>
+        <v>38303</v>
       </c>
       <c r="D4" t="s">
         <v>105</v>
       </c>
       <c r="E4" t="s">
-        <v>111</v>
+        <v>159</v>
       </c>
       <c r="F4">
         <v>123456789</v>
       </c>
       <c r="G4" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>2251162000</v>
+        <v>2251132567</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" s="3">
-        <v>38272</v>
+        <v>144</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
       </c>
       <c r="E5" t="s">
-        <v>115</v>
+        <v>160</v>
       </c>
       <c r="F5">
         <v>123456789</v>
       </c>
       <c r="G5" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>2251162100</v>
+        <v>2251132854</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6" s="3">
-        <v>38293</v>
+        <v>146</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="D6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E6" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="F6">
         <v>123456789</v>
       </c>
       <c r="G6" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>2251162200</v>
+        <v>2251141523</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" s="3">
-        <v>38322</v>
+        <v>152</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="D7" t="s">
         <v>105</v>
       </c>
       <c r="E7" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="F7">
         <v>123456789</v>
       </c>
       <c r="G7" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>2251142400</v>
+        <v>2251142065</v>
       </c>
       <c r="B8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>119</v>
+        <v>151</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="D8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E8" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="F8">
         <v>123456789</v>
       </c>
       <c r="G8" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>2251142450</v>
+        <v>2251142400</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D9" t="s">
         <v>108</v>
       </c>
       <c r="E9" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="F9">
         <v>123456789</v>
       </c>
       <c r="G9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>2251132178</v>
+        <v>2251142450</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="D10" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E10" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="F10">
         <v>123456789</v>
       </c>
       <c r="G10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>2251132213</v>
+        <v>2251142987</v>
       </c>
       <c r="B11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C11" s="3">
-        <v>38261</v>
+        <v>137</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="D11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E11" t="s">
         <v>126</v>
@@ -4734,248 +5272,248 @@
         <v>123456789</v>
       </c>
       <c r="G11" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>2251172210</v>
+        <v>2251151842</v>
       </c>
       <c r="B12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C12" s="3">
-        <v>37987</v>
+        <v>150</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="D12" t="s">
         <v>108</v>
       </c>
       <c r="E12" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="F12">
         <v>123456789</v>
       </c>
       <c r="G12" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>2251172314</v>
+        <v>2251151965</v>
       </c>
       <c r="B13" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D13" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E13" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F13">
         <v>123456789</v>
       </c>
       <c r="G13" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>2251172145</v>
+        <v>2251152345</v>
       </c>
       <c r="B14" t="s">
-        <v>130</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>133</v>
+        <v>107</v>
+      </c>
+      <c r="C14" s="3">
+        <v>38050</v>
       </c>
       <c r="D14" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E14" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F14">
         <v>123456789</v>
       </c>
       <c r="G14" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>2251172156</v>
+        <v>2251152410</v>
       </c>
       <c r="B15" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="C15" s="3">
-        <v>38235</v>
+        <v>38333</v>
       </c>
       <c r="D15" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E15" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="F15">
         <v>123456789</v>
       </c>
       <c r="G15" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>2251172765</v>
+        <v>2251152813</v>
       </c>
       <c r="B16" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="D16" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E16" t="s">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="F16">
         <v>123456789</v>
       </c>
       <c r="G16" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>2251142987</v>
+        <v>2251161900</v>
       </c>
       <c r="B17" t="s">
-        <v>137</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>138</v>
+        <v>110</v>
+      </c>
+      <c r="C17" s="3">
+        <v>38113</v>
       </c>
       <c r="D17" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E17" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="F17">
         <v>123456789</v>
       </c>
       <c r="G17" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>2251151965</v>
+        <v>2251162000</v>
       </c>
       <c r="B18" t="s">
-        <v>139</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>140</v>
+        <v>112</v>
+      </c>
+      <c r="C18" s="3">
+        <v>38272</v>
       </c>
       <c r="D18" t="s">
         <v>108</v>
       </c>
       <c r="E18" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="F18">
         <v>123456789</v>
       </c>
       <c r="G18" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>2251162654</v>
+        <v>2251162100</v>
       </c>
       <c r="B19" t="s">
-        <v>142</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>143</v>
+        <v>113</v>
+      </c>
+      <c r="C19" s="3">
+        <v>38293</v>
       </c>
       <c r="D19" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E19" t="s">
-        <v>158</v>
+        <v>116</v>
       </c>
       <c r="F19">
         <v>123456789</v>
       </c>
       <c r="G19" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>2251132345</v>
+        <v>2251162200</v>
       </c>
       <c r="B20" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="C20" s="3">
-        <v>38303</v>
+        <v>38322</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
       </c>
       <c r="E20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F20">
         <v>123456789</v>
       </c>
       <c r="G20" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>2251132567</v>
+        <v>2251162654</v>
       </c>
       <c r="B21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D21" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E21" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F21">
         <v>123456789</v>
       </c>
       <c r="G21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>2251132854</v>
+        <v>2251172145</v>
       </c>
       <c r="B22" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D22" t="s">
         <v>105</v>
@@ -4987,64 +5525,64 @@
         <v>123456789</v>
       </c>
       <c r="G22" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>2251152813</v>
+        <v>2251172156</v>
       </c>
       <c r="B23" t="s">
-        <v>149</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>153</v>
+        <v>128</v>
+      </c>
+      <c r="C23" s="3">
+        <v>38235</v>
       </c>
       <c r="D23" t="s">
         <v>108</v>
       </c>
       <c r="E23" t="s">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="F23">
         <v>123456789</v>
       </c>
       <c r="G23" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>2251151842</v>
+        <v>2251172210</v>
       </c>
       <c r="B24" t="s">
-        <v>150</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>154</v>
+        <v>127</v>
+      </c>
+      <c r="C24" s="3">
+        <v>37987</v>
       </c>
       <c r="D24" t="s">
         <v>108</v>
       </c>
       <c r="E24" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F24">
         <v>123456789</v>
       </c>
       <c r="G24" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>2251142065</v>
+        <v>2251172314</v>
       </c>
       <c r="B25" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -5056,33 +5594,38 @@
         <v>123456789</v>
       </c>
       <c r="G25" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>2251141523</v>
+        <v>2251172765</v>
       </c>
       <c r="B26" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="D26" t="s">
         <v>105</v>
       </c>
       <c r="E26" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F26">
         <v>123456789</v>
       </c>
       <c r="G26" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1" xr:uid="{250D15DE-FAC0-4023-8A0F-5ADAD22EF218}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G26">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
